--- a/Doc/会议纪要/公交客流统计系统会议纪要.xlsx
+++ b/Doc/会议纪要/公交客流统计系统会议纪要.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView windowWidth="23028" windowHeight="9947" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2019-1-2" sheetId="1" r:id="rId1"/>
+    <sheet name="2019-1-11" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>会议纪要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>会议时间：2019年1月2号</t>
@@ -31,10 +26,19 @@
     <t>参会人员：罗宁、边玉涛、赖永天、吴建雄、张建强</t>
   </si>
   <si>
+    <t xml:space="preserve">                曾康、张烜榕、梁国昌、汤如杰、钟锦堂</t>
+  </si>
+  <si>
     <t>会议内容</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -42,7 +46,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
@@ -51,7 +55,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公交车客流统计系统当前工作汇总。</t>
@@ -59,6 +62,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>2.</t>
     </r>
     <r>
@@ -66,7 +75,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
@@ -75,7 +84,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公交车客流统计系统工作规划。</t>
@@ -85,7 +93,16 @@
     <t>会议结论</t>
   </si>
   <si>
-    <r>
+    <t>系统各模块负责内容：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1、</t>
     </r>
     <r>
@@ -93,7 +110,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -102,7 +119,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>终端由视觉部承担开发，软件工程师为张建强。</t>
@@ -110,6 +126,70 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台系统（含后台、前端）由自动化部承担开发，通信后台软件工程师为钟锦堂，WEB后台软件工程师为汤如杰，WEB前端工程师为张烜榕。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>终端及平台系统的测试由三部测试负责。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>4、</t>
     </r>
     <r>
@@ -117,7 +197,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -126,7 +206,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>通信压力测试工具由自动化部承担开发，软件工程师为冼日晓。</t>
@@ -137,6 +216,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1、</t>
     </r>
     <r>
@@ -144,7 +229,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -153,7 +238,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>点击某路公交车时，需在地图上显示该路公交车线路图。</t>
@@ -161,6 +245,41 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公交车线路图上的公交车需以图标显示，图标上要显示当前车上所余人数。点击该图标可查看当前车的各站上/下车详情。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>3、</t>
     </r>
     <r>
@@ -168,7 +287,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -177,7 +296,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>菜单栏增加报表项（含车辆监控、车内治安监控、调度排班表、客流报表）。</t>
@@ -188,6 +306,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1、</t>
     </r>
     <r>
@@ -195,7 +319,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -204,7 +328,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可根据excel或是文本文件的内容，生成相应的数据包。</t>
@@ -212,6 +335,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>2、</t>
     </r>
     <r>
@@ -219,7 +348,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -228,7 +357,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>登录包、心跳包根据当前通信条件软件自行添加，不根据文本文件读取。</t>
@@ -236,6 +364,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>3、</t>
     </r>
     <r>
@@ -243,7 +377,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -252,7 +386,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>将所有数据包发送给终端。</t>
@@ -260,6 +393,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>4、</t>
     </r>
     <r>
@@ -267,7 +406,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -276,7 +415,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可设置发送的间隔时间。</t>
@@ -289,10 +427,74 @@
     <t>平台（协议通信部分）：</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019/1/3平台需保证终端能与后台保持长连接且正常通信。负责人：钟锦堂</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019/1/7 平台须提供测试接口给三部测试进行正常测试，其中包含要处理粘包、错包、重包等情况。负责人：钟锦堂</t>
+    </r>
+  </si>
+  <si>
     <t>平台（WEB）：</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1、</t>
     </r>
     <r>
@@ -300,7 +502,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -309,7 +511,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2019/1/3模拟一条公交车路线，并将路线规划的详细信息提供（至少包含经纬度、站名）。负责人：汤如杰</t>
@@ -317,6 +518,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>2、</t>
     </r>
     <r>
@@ -324,7 +531,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -333,7 +540,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>路线规划信息提交三部测试无异后，前台需要路线规划实现，计划开发时长为一日。负责人：张烜榕</t>
@@ -341,6 +547,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>3、</t>
     </r>
     <r>
@@ -348,7 +560,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -357,7 +569,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>另将会议结论中平台需实现功能完成，计划开发时长六日，提交测试完毕五日。负责人：汤如杰、张烜榕</t>
@@ -368,6 +579,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1、</t>
     </r>
     <r>
@@ -375,7 +592,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -384,162 +601,103 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>将会议结论中平台需实现功能完成，计划开发时长十二日，提交测试完毕至开发完毕时长为十日。负责人：冼日晓</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                曾康、张烜榕、梁国昌、汤如杰、钟锦堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统各模块负责内容：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平台系统（含后台、前端）由自动化部承担开发，通信后台软件工程师为钟锦堂，WEB后台软件工程师为汤如杰，WEB前端工程师为张烜榕。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>终端及平台系统的测试由三部测试负责。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公交车线路图上的公交车需以图标显示，图标上要显示当前车上所余人数。点击该图标可查看当前车的各站上/下车详情。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2019/1/3平台需保证终端能与后台保持长连接且正常通信。负责人：钟锦堂</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2019/1/7 平台须提供测试接口给三部测试进行正常测试，其中包含要处理粘包、错包、重包等情况。负责人：钟锦堂</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>会议时间：2019年1月11号</t>
+  </si>
+  <si>
+    <t>参会人员：罗宁、边玉涛、赖永天、张建强、钟建明、林康、莫志杰
+                梁国昌、张烜榕、冼日晓、钟锦堂</t>
+  </si>
+  <si>
+    <t>1.    公交车客流统计系统当前工作汇总。</t>
+  </si>
+  <si>
+    <t>2.    公交车客流统计系统工作规划。</t>
+  </si>
+  <si>
+    <t>WEB前端：</t>
+  </si>
+  <si>
+    <t>1、数据统计，本周完成。</t>
+  </si>
+  <si>
+    <t>2、点击车辆定位，选择某一路车，地图上同时显示该路所有车辆当前位置。</t>
+  </si>
+  <si>
+    <t>3、点击车辆定位，选择某一路车，显示该路路线，有起点终点。</t>
+  </si>
+  <si>
+    <t>4、路线上的站点信息，显示方向，例如：往博罗方向或往惠城方向（方向为尾站）。</t>
+  </si>
+  <si>
+    <t>5、菜单栏菜单项需要有文字显示。</t>
+  </si>
+  <si>
+    <t>6、添加轨迹播放速度设置。</t>
+  </si>
+  <si>
+    <t>WEB后台：</t>
+  </si>
+  <si>
+    <t>1、路线定位点按照定位时间排序，考虑的是终端断网一段时候后，先传的是当前定位再补传前面的定位点。</t>
+  </si>
+  <si>
+    <t>2、轨迹回放一样是以定位时间排序。</t>
+  </si>
+  <si>
+    <t>通信后台：</t>
+  </si>
+  <si>
+    <t>1、添加GPS、事件包回复功能。回复包格式参照心跳包的回复。</t>
+  </si>
+  <si>
+    <t>2、终端静态定位漂移，该定位点与前一个定位点 距离/时间间隔 &gt; 120km/h,则认为是静止，舍弃该定位。</t>
+  </si>
+  <si>
+    <t>3、解决国标坐标系与高德坐标系偏差问题。</t>
+  </si>
+  <si>
+    <t>基本功能本周完成，最迟下周一部门内提测，下周交三部提测。</t>
+  </si>
+  <si>
+    <t>见会议结论</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -547,49 +705,188 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
+      <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,8 +899,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -613,86 +1096,375 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -741,7 +1513,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -776,7 +1548,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -950,201 +1722,360 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="108.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="35.5" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="36.15" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="15.75" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="15" spans="1:1">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="15.75" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:1">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="26.55" spans="1:1">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="26.55" spans="1:1">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="1:1">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:1">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="30" spans="1:1">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:1">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:1">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:1">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:1">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:1">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:1">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="1:1">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="26.55" spans="1:1">
+      <c r="A25" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:1">
+      <c r="A26" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:1">
+      <c r="A27" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:1">
+      <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:1" s="7" customFormat="1" ht="25.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="29" ht="15.6" spans="1:1">
+      <c r="A29" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:1">
+      <c r="A30" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:1">
+      <c r="A31" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:1">
+      <c r="A32" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="1:1">
+      <c r="A33" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:1">
+      <c r="A34" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" spans="1:1">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" ht="15" spans="1:1">
+      <c r="A36" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="108.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36.15" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="30" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:1">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" ht="26.55" spans="1:1">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" s="7" customFormat="1" ht="25.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" s="1" customFormat="1" ht="22.8" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="26.55" spans="1:1">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="22.8" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" s="7" customFormat="1" ht="25.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="10" ht="15.6" spans="1:1">
+      <c r="A10" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:1">
+      <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:1">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:1">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:1">
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:1">
+      <c r="A17" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:1">
+      <c r="A19" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:1">
+      <c r="A20" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:1">
+      <c r="A22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:1">
+      <c r="A23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:1">
+      <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="25" ht="15.75" spans="1:1">
+      <c r="A25" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="1:1">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="21" customHeight="1" spans="1:1">
+      <c r="A27" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+    <row r="28" ht="23.4" spans="1:1">
+      <c r="A28" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" spans="1:1">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" ht="15" spans="1:1">
+      <c r="A30" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>